--- a/data/trans_bre/P18_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P18_4_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,74</t>
+          <t>17,96</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-10,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>22,94</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>139,16%</t>
+          <t>-1,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,99%</t>
+          <t>228,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>52,47%</t>
+          <t>-30,78%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>53,27%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>600,54%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 18,15</t>
+          <t>-30,83; 21,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 20,12</t>
+          <t>3,71; 34,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 10,5</t>
+          <t>-52,02; 14,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 15,23</t>
+          <t>-9,33; 23,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 60,91</t>
+          <t>9,1; 37,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 446,51</t>
+          <t>-48,44; 72,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-64,46; 105,91</t>
+          <t>7,09; 1302,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-33,57; 248,82</t>
+          <t>-83,28; 116,61</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-44,56; 469,55</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>84,78; 4411,2</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,34%</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>27,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>51,73%</t>
+          <t>30,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,22%</t>
+          <t>71,66%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14,97%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-21,43%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 14,63</t>
+          <t>-4,43; 15,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 5,84</t>
+          <t>-3,48; 9,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 11,24</t>
+          <t>0,06; 15,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 11,85</t>
+          <t>-5,63; 9,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 77,29</t>
+          <t>-8,06; 4,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,6; 86,21</t>
+          <t>-16,9; 96,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 145,49</t>
+          <t>-30,37; 199,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 135,73</t>
+          <t>-3,29; 238,43</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-36,29; 133,06</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-65,86; 73,31</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-3,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-20,69%</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,32%</t>
+          <t>-16,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>125,41%</t>
+          <t>-28,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>63,57%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-15,9%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,51%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 3,25</t>
+          <t>-13,85; 6,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 3,21</t>
+          <t>-7,16; 2,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 10,5</t>
+          <t>-2,33; 9,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 5,94</t>
+          <t>-8,2; 4,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-46,49; 18,19</t>
+          <t>-5,65; 5,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,5; 107,77</t>
+          <t>-47,75; 34,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 388,67</t>
+          <t>-77,69; 117,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,31; 147,96</t>
+          <t>-28,41; 366,05</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-71,8; 108,33</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-79,12; 294,79</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 7,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 8,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 8,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 31,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 85,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 116,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 111,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,42</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,46</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4,61%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38,52%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29,46%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11,11%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>53,3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-6,98; 8,3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 7,12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-6,37; 8,53</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,03; 5,79</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 7,97</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-22,69; 38,66</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-16,3; 143,68</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-36,88; 102,91</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-29,82; 78,69</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-16,65; 170,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P18_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P18_4_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>17,96</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-10,23</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,83</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>22,94</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,17%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>228,29%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-30,78%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>53,27%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>600,54%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.5471994973419436</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>16.93760797487651</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.903540502954161</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.082631295852678</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>24.48912257690751</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.01173925405232429</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2.217228159248834</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.2287374315787401</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.4755920556552893</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>6.572175079142318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-30,83; 21,81</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,71; 34,23</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-52,02; 14,35</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-9,33; 23,9</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>9,1; 37,9</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-48,44; 72,01</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>7,09; 1302,17</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-83,28; 116,61</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-44,56; 469,55</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>84,78; 4411,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-30.83179899240907</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>3.024813998557912</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-46.13274793390098</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-9.132539770553096</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>10.32776342230497</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.4843702452406942</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.06217606632093527</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.8094486366223511</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.4582520758497089</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.8896938467581147</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>21.80756904094233</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>32.76148833013487</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.2764296492674</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>22.52817048109362</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>41.80166351913169</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.7201442292620482</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>13.21204701237336</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.294837561526549</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>4.407653461065732</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>53.70926418285056</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,88</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,24</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-1,9</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>27,68%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>30,73%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>71,66%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>14,97%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-21,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,43; 15,23</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 9,63</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 15,15</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,63; 9,1</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-8,06; 4,15</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-16,9; 96,61</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-30,37; 199,11</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-3,29; 238,43</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-36,29; 133,06</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-65,86; 73,31</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.875125849006483</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.809776597520123</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>8.20343140939822</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.792906226584989</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-2.512850943865025</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.2768414739432635</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.4744238174900538</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.8654804445036657</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1570523298847913</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.2740054266183203</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,65</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,59</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,81</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,13</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-16,1%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-28,12%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>63,57%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-15,9%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>8,51%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.428483040112883</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.303061255998206</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.6788937593961377</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.37226851755012</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-8.896456824694038</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1690274585021366</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2384749095448021</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.04769857538674978</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3547317338246561</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.6887229613990644</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,85; 6,02</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,16; 2,92</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 9,64</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,2; 4,02</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-5,65; 5,21</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-47,75; 34,54</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-77,69; 117,97</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-28,41; 366,05</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-71,8; 108,33</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-79,12; 294,79</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>15.22643002644923</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>12.36595925076887</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>16.11885813257371</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>9.22201645545799</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>3.21776970616407</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.9661211682214623</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.426395839450509</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.692885457520315</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.297658511007287</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.55102818759723</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-3.650005238874188</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.435832849356097</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.43926562492809</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.480677020586305</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.207186176007812</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1609616363807507</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.3477894396699059</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.3477486162931737</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.2037560428873077</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.04823527576957932</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.84926125631086</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.9413116389958</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.973015107863881</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-9.417093325831944</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-5.94904656157754</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.477544694219686</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8657870234926824</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4721006627425112</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.7433818817697797</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.8047724507673102</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.024744528129942</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.906735216452697</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.357478999518671</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.702634132129672</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>4.696185929018017</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.3453547326276366</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.050079520676852</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.49354718997901</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.9806141962254321</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>2.823261346243131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,42</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,46</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,61%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>38,52%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>29,46%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>11,11%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>53,3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,98; 8,3</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,55; 7,12</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,37; 8,53</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,03; 5,79</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 7,97</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-22,69; 38,66</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-16,3; 143,68</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-36,88; 102,91</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-29,82; 78,69</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-16,65; 170,0</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.159016945399849</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.965751389845118</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.023302873202622</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.040055320540607</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>3.43460769999395</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.04606236060135203</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3912412723796276</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.360910235555597</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1022652807733015</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.5172552821884502</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.977491961651783</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.011696844874115</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.507455967620826</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.094522091669941</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-1.554532497159715</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2269276931251414</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2210429947869557</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2907848211003929</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3050498746581413</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1727808569939195</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.303385394968121</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.742189548585439</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.778478147496509</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.705195429652251</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>8.306862932508894</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.3865647592122837</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.407401511859673</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.094912986678373</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.7462041675050416</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.757403390294114</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
